--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1457937.207380194</v>
+        <v>1455685.127668986</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283174</v>
+        <v>416855.105228322</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10685950.03826802</v>
+        <v>10685950.03826801</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.2374978587282</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,13 +665,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>108.2462644793318</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.0194217993447</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>108.549119697934</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>213.4331505673763</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>357.5738180516808</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>54.12472935313052</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>81.58403242496196</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>41.41379075544764</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,7 +1187,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>335.2180816111922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>1.897177112447148</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986293</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936177</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016406</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>216.7094028874757</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187843</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>68.17501931584054</v>
+        <v>102.1557845699805</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856363</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710053</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>134.5665975534171</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419833819</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238258</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2087,13 +2087,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>162.7401913819112</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2327,13 +2327,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444106</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>73.98898794535624</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016433</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>54.31367585848636</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>91.89996056624803</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187834</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046869</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>152.8697920431069</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936116</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>41.02686156550261</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>107.4021082756243</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>107.4021082756242</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.034709923659</v>
+        <v>2315.404380360518</v>
       </c>
       <c r="X2" t="n">
-        <v>2161.568951662579</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>2161.568951662579</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4398,19 +4398,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>712.9584475362279</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="C4" t="n">
-        <v>712.9584475362279</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D4" t="n">
-        <v>712.9584475362279</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E4" t="n">
-        <v>565.0453539538348</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F4" t="n">
-        <v>418.1554064559244</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279954</v>
@@ -4513,25 +4513,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>933.7510266797581</v>
+        <v>860.4091179521432</v>
       </c>
       <c r="Y4" t="n">
-        <v>712.9584475362279</v>
+        <v>639.6165388086131</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2793.748364543341</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2793.748364543341</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2793.748364543341</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2420.282606282261</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684.452007243032</v>
+        <v>443.0505103572864</v>
       </c>
       <c r="C7" t="n">
-        <v>515.5158243151251</v>
+        <v>443.0505103572864</v>
       </c>
       <c r="D7" t="n">
-        <v>365.3991849027893</v>
+        <v>443.0505103572864</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>295.1374167748933</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>295.1374167748933</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214137</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.50719300825</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732717</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="Y7" t="n">
-        <v>866.1004720732717</v>
+        <v>624.6989751875261</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>958.1473305693555</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>572.3590779711112</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>565.4135772219078</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>150.3411270669042</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,19 +4802,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>1986.901740067214</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>681.6115596545848</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>512.6753767266779</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>362.5587373143421</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>214.645643731949</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>214.645643731949</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1722.044275313594</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1722.044275313594</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1722.044275313594</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>681.6115596545848</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452603</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718124</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142524</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.0274703142524</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.10824923517</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.10824923517</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,49 +5279,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>943.5102657467554</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.11872044489</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684177</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597628</v>
+        <v>197.0043242297703</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851764</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000564</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000564</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5504,61 +5504,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572634</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449277</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>229.7425191625346</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>229.7425191625346</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993918</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956958</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.14947905894</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154101</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>691.1951506745235</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.3164745246314</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498401</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.964939354871</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168579</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362654</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="24">
@@ -6051,40 +6051,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961522</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6918836312008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7557007032939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>482.6390612909581</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>482.6390612909581</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>335.7491137930477</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="G25" t="n">
-        <v>168.5530145079277</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359458</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614405</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449245</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,19 +6534,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>631.5645865368213</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>481.4479471244855</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>333.5348535420924</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>186.644906044182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168579</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="33">
@@ -6762,43 +6762,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I33" t="n">
-        <v>94.56320294380259</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J33" t="n">
-        <v>244.2098454714573</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714573</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1814.118720444888</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400608</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>411.1294017454276</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570807</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279792</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885335</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832652</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487557</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510498</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854696</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648809</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611848</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138306</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703005</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6953,34 +6953,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J36" t="n">
-        <v>184.7035232280583</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K36" t="n">
-        <v>184.7035232280583</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>740.5562989961522</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.53275017731</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.53275017731</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400635</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343197</v>
+        <v>344.9174178121566</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219839</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395908</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>302.4540366416804</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G37" t="n">
-        <v>135.2579373565604</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038267</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797667</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910801</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.56011257081</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279794</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853353</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832655</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487559</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854698</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648811</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611851</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138333</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703032</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K42" t="n">
-        <v>175.8744207939068</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096656</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190824</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819173</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695815</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>516.3896878871884</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>369.499740389278</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>202.303641104158</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K45" t="n">
-        <v>251.562654109227</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37.12601365260619</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>69.47507150176844</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>77.2460287070907</v>
+        <v>43.26526345295076</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>30.95754073885178</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788569</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.506629716716617</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294984</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>66.30572490086762</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>92.12028678808281</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>65.54986409393102</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>73.62417772602082</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.54986409394098</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25123,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>99.26785128072112</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>45.44677382460071</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>99.26785128072125</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>73.62417772602025</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>32.89260457059963</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>920238.8039515036</v>
+        <v>920238.8039515031</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515029</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.803951503</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515029</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.803951503</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.803951503</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>920238.8039515034</v>
+        <v>920238.8039515031</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>920238.8039515035</v>
+        <v>920238.8039515032</v>
       </c>
     </row>
   </sheetData>
@@ -26317,40 +26317,40 @@
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="H2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>504466.6248062534</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="I2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.624806254</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062538</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818173</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26525,43 @@
         <v>313033.2666856018</v>
       </c>
       <c r="D6" t="n">
-        <v>313033.2666856021</v>
+        <v>313033.2666856023</v>
       </c>
       <c r="E6" t="n">
-        <v>64934.7690281606</v>
+        <v>64900.03110272536</v>
       </c>
       <c r="F6" t="n">
-        <v>390347.2308355161</v>
+        <v>390312.4929100808</v>
       </c>
       <c r="G6" t="n">
-        <v>390347.2308355161</v>
+        <v>390312.4929100802</v>
       </c>
       <c r="H6" t="n">
-        <v>390347.2308355162</v>
+        <v>390312.4929100804</v>
       </c>
       <c r="I6" t="n">
-        <v>390347.2308355162</v>
+        <v>390312.4929100802</v>
       </c>
       <c r="J6" t="n">
-        <v>172816.0284382386</v>
+        <v>172781.290512803</v>
       </c>
       <c r="K6" t="n">
-        <v>390347.2308355162</v>
+        <v>390312.4929100803</v>
       </c>
       <c r="L6" t="n">
-        <v>390347.2308355163</v>
+        <v>390312.4929100806</v>
       </c>
       <c r="M6" t="n">
-        <v>305292.2029000045</v>
+        <v>305257.4649745685</v>
       </c>
       <c r="N6" t="n">
-        <v>390347.2308355162</v>
+        <v>390312.4929100803</v>
       </c>
       <c r="O6" t="n">
-        <v>390347.2308355162</v>
+        <v>390312.4929100804</v>
       </c>
       <c r="P6" t="n">
-        <v>390347.2308355164</v>
+        <v>390312.4929100805</v>
       </c>
     </row>
   </sheetData>
@@ -26747,7 +26747,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164.4963438047523</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>240.9947042380812</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>59.00638645968353</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>117.1605356911031</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>37.56202139152572</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>28.66412060437278</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>92.30923329343865</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>84.44177583406626</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>253.1939736318728</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.01985704486134</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.1286311465811</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>16.35117922901983</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,13 +28090,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -29244,7 +29244,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29940,7 +29940,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-9.018071781633474e-12</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-7.541226902200529e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>508.3747716989737</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>616.5397119226061</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786837</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>688.8020111197792</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>714.9328157424952</v>
       </c>
       <c r="N24" t="n">
-        <v>602.4605829984174</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>194.5189324111258</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>336.3457189021232</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991336</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>100.2764607028593</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>653.385039637378</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>216.8572963387063</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>454.8099857531878</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391492</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817591</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>220.7280629601519</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>452.8027404478654</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>452.3405299254394</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164529</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>369.8203919190995</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>477.9853321427319</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342392</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>546.2057666753348</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>572.7987818204768</v>
       </c>
       <c r="N24" t="n">
-        <v>471.1188709150841</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>55.96455263125159</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>205.0040068187898</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>122.329632432467</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7540807028593007</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>510.7887951929335</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329898968</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>90.01966967203961</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>320.8355783388575</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096274</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558158</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>82.88662398579289</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>310.206496003421</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>310.2064960034211</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
